--- a/scrapers/scraped-data/EURILCA MASTER SERIES BÉLGICA 2023_ilca 7.xlsx
+++ b/scrapers/scraped-data/EURILCA MASTER SERIES BÉLGICA 2023_ilca 7.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -642,7 +642,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -689,7 +689,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -783,7 +783,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -830,7 +830,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -877,7 +877,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1018,7 +1018,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1065,7 +1065,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1159,7 +1159,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1206,7 +1206,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1253,7 +1253,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1300,7 +1300,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1347,7 +1347,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1394,7 +1394,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1441,7 +1441,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1488,7 +1488,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1535,7 +1535,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1629,7 +1629,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1723,7 +1723,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1817,7 +1817,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1864,7 +1864,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1958,7 +1958,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2103,7 +2103,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2150,7 +2150,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2244,7 +2244,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2291,7 +2291,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2479,7 +2479,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2526,7 +2526,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2573,7 +2573,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2718,7 +2718,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2765,7 +2765,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2859,7 +2859,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2910,7 +2910,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2961,7 +2961,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3008,7 +3008,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3153,7 +3153,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3200,7 +3200,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3247,7 +3247,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3294,7 +3294,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3341,7 +3341,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3388,7 +3388,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3435,7 +3435,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3529,7 +3529,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3623,7 +3623,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3670,7 +3670,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3717,7 +3717,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3768,7 +3768,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3870,7 +3870,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3968,7 +3968,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -4015,7 +4015,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4160,7 +4160,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4207,7 +4207,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4254,7 +4254,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4301,7 +4301,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4450,7 +4450,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4497,7 +4497,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -4544,7 +4544,7 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -4595,7 +4595,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -4693,7 +4693,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -4740,7 +4740,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -4787,7 +4787,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -4834,7 +4834,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -4881,7 +4881,7 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
@@ -4928,7 +4928,7 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
@@ -4979,7 +4979,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -5077,7 +5077,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
@@ -5128,7 +5128,7 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
@@ -5175,7 +5175,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
@@ -5269,7 +5269,7 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
@@ -5320,7 +5320,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -5465,7 +5465,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -5512,7 +5512,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
@@ -5563,7 +5563,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="B111" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C111" t="inlineStr">
         <is>
@@ -5755,7 +5755,7 @@
         </is>
       </c>
       <c r="B112" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -5806,7 +5806,7 @@
         </is>
       </c>
       <c r="B113" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C113" t="inlineStr">
         <is>
@@ -5857,7 +5857,7 @@
         </is>
       </c>
       <c r="B114" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -5904,7 +5904,7 @@
         </is>
       </c>
       <c r="B115" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -5951,7 +5951,7 @@
         </is>
       </c>
       <c r="B116" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -5998,7 +5998,7 @@
         </is>
       </c>
       <c r="B117" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -6049,7 +6049,7 @@
         </is>
       </c>
       <c r="B118" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -6100,7 +6100,7 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -6147,7 +6147,7 @@
         </is>
       </c>
       <c r="B120" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -6194,7 +6194,7 @@
         </is>
       </c>
       <c r="B121" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -6241,7 +6241,7 @@
         </is>
       </c>
       <c r="B122" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -6292,7 +6292,7 @@
         </is>
       </c>
       <c r="B123" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -6343,7 +6343,7 @@
         </is>
       </c>
       <c r="B124" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -6390,7 +6390,7 @@
         </is>
       </c>
       <c r="B125" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B126" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -6484,7 +6484,7 @@
         </is>
       </c>
       <c r="B127" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -6531,7 +6531,7 @@
         </is>
       </c>
       <c r="B128" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C128" t="inlineStr">
         <is>
@@ -6582,7 +6582,7 @@
         </is>
       </c>
       <c r="B129" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C129" t="inlineStr">
         <is>
@@ -6633,7 +6633,7 @@
         </is>
       </c>
       <c r="B130" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C130" t="inlineStr">
         <is>
@@ -6684,7 +6684,7 @@
         </is>
       </c>
       <c r="B131" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C131" t="inlineStr">
         <is>
@@ -6735,7 +6735,7 @@
         </is>
       </c>
       <c r="B132" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C132" t="inlineStr">
         <is>
@@ -6786,7 +6786,7 @@
         </is>
       </c>
       <c r="B133" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C133" t="inlineStr">
         <is>
@@ -6837,7 +6837,7 @@
         </is>
       </c>
       <c r="B134" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C134" t="inlineStr">
         <is>
@@ -6884,7 +6884,7 @@
         </is>
       </c>
       <c r="B135" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C135" t="inlineStr">
         <is>
@@ -6931,7 +6931,7 @@
         </is>
       </c>
       <c r="B136" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C136" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         </is>
       </c>
       <c r="B137" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C137" t="inlineStr">
         <is>
@@ -7029,7 +7029,7 @@
         </is>
       </c>
       <c r="B138" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -7080,7 +7080,7 @@
         </is>
       </c>
       <c r="B139" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -7127,7 +7127,7 @@
         </is>
       </c>
       <c r="B140" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -7178,7 +7178,7 @@
         </is>
       </c>
       <c r="B141" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C141" t="inlineStr">
         <is>
@@ -7225,7 +7225,7 @@
         </is>
       </c>
       <c r="B142" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C142" t="inlineStr">
         <is>
@@ -7276,7 +7276,7 @@
         </is>
       </c>
       <c r="B143" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C143" t="inlineStr">
         <is>
@@ -7327,7 +7327,7 @@
         </is>
       </c>
       <c r="B144" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C144" t="inlineStr">
         <is>
@@ -7374,7 +7374,7 @@
         </is>
       </c>
       <c r="B145" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C145" t="inlineStr">
         <is>
@@ -7425,7 +7425,7 @@
         </is>
       </c>
       <c r="B146" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -7476,7 +7476,7 @@
         </is>
       </c>
       <c r="B147" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C147" t="inlineStr">
         <is>
@@ -7527,7 +7527,7 @@
         </is>
       </c>
       <c r="B148" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C148" t="inlineStr">
         <is>
@@ -7578,7 +7578,7 @@
         </is>
       </c>
       <c r="B149" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -7625,7 +7625,7 @@
         </is>
       </c>
       <c r="B150" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C150" t="inlineStr">
         <is>
@@ -7676,7 +7676,7 @@
         </is>
       </c>
       <c r="B151" t="n">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
